--- a/cuestionario_formr_lisa_test.xlsx
+++ b/cuestionario_formr_lisa_test.xlsx
@@ -4,20 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Hoja 3" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="choices" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="IhQB8ppDzqz+H4jnTtCaB2HLU/sq/ECF6nlxLH6IpvI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="CH0XsIjMOQss2GJN1FjgO+Dad+aagFwNZ06rdJlLSVs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="404">
   <si>
     <t>explanations</t>
   </si>
@@ -1412,6 +1413,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10679,6 +10684,613 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="8"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="8"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="8"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="8"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="8"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="8"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="8"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="8"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="8"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="8"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="8"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="8"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="8"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="8"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="8"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="8"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="8"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="8"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="8"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="8"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="8"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="8"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="8"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="8"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="8"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="8"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="8"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="8"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="8"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="8"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="8"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="8"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="8"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="8"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="8"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="8"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="8"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="8"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="8"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="8"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="8"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="8"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="8"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="8"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="8"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="8"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="8"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="8"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="8"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="8"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="8"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="8"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
